--- a/biology/Botanique/Tulipa_edulis/Tulipa_edulis.xlsx
+++ b/biology/Botanique/Tulipa_edulis/Tulipa_edulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulipa edulis (Miq.) Baker, est une espèce de tulipe originaire d'Asie, cultivée comme ornementale dans de nombreux pays pour ses fleurs.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre en Chine, au Japon et en Corée où elle croît dans des lieux humides, en basse altitude, près des rivières sur les versants boisés et les stations près du niveau de la mer jusqu'à 1 700 m d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulipa edulis est, comme son nom latin l'indique, comestible et elle est utilisée dans certains cas comme médicament.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amana edulis (Miq.) Honda (nom accepté)
 Amana graminifolia (Baker) A.D.Hall
@@ -584,7 +602,7 @@
 Orithyia oxypetala A.Gray
 Ornithogalum edule Siebold
 Tulipa edulis (Miq.) Baker 
-Tulipa graminifolia Baker[1]</t>
+Tulipa graminifolia Baker</t>
         </is>
       </c>
     </row>
